--- a/biology/Origine et évolution du vivant/Radiolaria/Radiolaria.xlsx
+++ b/biology/Origine et évolution du vivant/Radiolaria/Radiolaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les radiolaires, également appelés radiozoaires, sont des protozoaires d'un diamètre de 0,1 à 0,2 mm qui produisent des squelettes minéraux complexes, généralement avec une capsule centrale divisant la cellule en deux parties, l'endoplasme et l'ectoplasme, l'une interne et l'autre externe.
 Le squelette minéral est généralement constitué de silice. On les trouve sous forme de zooplancton dans tous les océans du monde. En tant que zooplancton, les radiolaires sont principalement hétérotrophes, mais nombre d'entre eux possèdent des endosymbiontes photosynthétiques et sont donc considérés comme mixotrophes. Les restes squelettiques de certains types de radiolaires constituent une grande partie de la couverture du plancher océanique sous forme de boue siliceuse. En raison de leur évolution rapide en tant qu'espèces et de leurs squelettes complexes, les radiolaires représentent un important fossile diagnostique découvert à partir du Cambrien.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Radiolaria constituent un des trois embranchements des Rhizaria, marins et pélagiques.
 Ils vivent en principe à l’état isolé, mais il existe quelques formes coloniales dans lesquelles chaque individu garde son identité fonctionnelle propre. Ils se caractérisent par la présence d'une capsule centrale séparant physiquement un ectoplasme d'un endoplasme.
@@ -550,7 +564,9 @@
           <t>Les illustrations d'Ernst Haeckel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les radiolaires ont passionné les scientifiques du XIXe siècle par la variété et la géométrie de leurs formes. Le scientifique, peintre et naturaliste Ernst Haeckel en fut notamment un grand admirateur, et en décrivit par dessin de très nombreuses espèces, dont les plus beaux exemplaires furent réunis dans son chef-d’œuvre : les Kunstformen der Natur (1904).
 			Clade des Phaeodaria
